--- a/Unity/Assets/Config/Excel/ColliderConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ColliderConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProjects\Zero\Unity\Assets\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF111E70-E98F-4697-929B-BD0BD95FE0BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BFDFF1-99F2-4574-9C66-6710D42007D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="1665" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>##var</t>
   </si>
@@ -139,10 +139,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>角色碰撞体</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>IsSensor</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -220,6 +216,22 @@
   </si>
   <si>
     <t>list,(list#sep=;),vector2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1002</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1"/>
@@ -353,7 +365,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -659,26 +670,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="10.5" style="8" customWidth="1"/>
-    <col min="7" max="9" width="11.5" style="8" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" style="8" customWidth="1"/>
+    <col min="8" max="9" width="11.44140625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" style="8" customWidth="1"/>
     <col min="11" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -692,25 +704,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -724,25 +736,25 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:10" ht="14.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
@@ -756,42 +768,40 @@
         <v>7</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="D4" s="10"/>
       <c r="E4" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>22</v>
@@ -801,8 +811,55 @@
       </c>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="11"/>
+    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -819,19 +876,19 @@
       <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="18.5" customWidth="1"/>
-    <col min="5" max="5" width="18.75" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
-    <col min="7" max="7" width="18.625" customWidth="1"/>
-    <col min="8" max="8" width="17.5" customWidth="1"/>
-    <col min="9" max="9" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
@@ -845,7 +902,7 @@
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
@@ -868,7 +925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
@@ -882,7 +939,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
@@ -896,7 +953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>25</v>
       </c>

--- a/Unity/Assets/Config/Excel/ColliderConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ColliderConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23775" windowHeight="11790"/>
+    <workbookView windowWidth="28800" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Skill" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -64,9 +64,6 @@
   </si>
   <si>
     <t>int</t>
-  </si>
-  <si>
-    <t>EColliderType</t>
   </si>
   <si>
     <t>string</t>
@@ -1203,8 +1200,8 @@
   <sheetPr/>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
@@ -1262,162 +1259,162 @@
         <v>11</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" s="4" customFormat="1" spans="2:10">
       <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="7"/>
     </row>
     <row r="5" s="4" customFormat="1" spans="2:10">
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="7"/>
     </row>
     <row r="6" s="4" customFormat="1" spans="2:10">
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="G6" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" s="7"/>
     </row>
     <row r="7" s="4" customFormat="1" spans="2:10">
       <c r="B7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1450,7 +1447,7 @@
   <sheetData>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1464,64 +1461,64 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>45</v>
-      </c>
-      <c r="H5" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/ColliderConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ColliderConfig.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -36,28 +36,7 @@
     <t>Id</t>
   </si>
   <si>
-    <t>ColliderType</t>
-  </si>
-  <si>
-    <t>Desc</t>
-  </si>
-  <si>
-    <t>IsSensor</t>
-  </si>
-  <si>
-    <t>Offset</t>
-  </si>
-  <si>
-    <t>Radius</t>
-  </si>
-  <si>
-    <t>HX</t>
-  </si>
-  <si>
-    <t>HY</t>
-  </si>
-  <si>
-    <t>*FinalPoints</t>
+    <t>ColliderParams</t>
   </si>
   <si>
     <t>##type</t>
@@ -66,91 +45,34 @@
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>vector2</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>list,(list#sep=;),vector2</t>
+    <t>$type</t>
+  </si>
+  <si>
+    <t>$value</t>
   </si>
   <si>
     <t>##</t>
   </si>
   <si>
-    <t>碰撞体类型类型</t>
+    <t>碰撞体参数</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>CircleColliderParams</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>##事件</t>
+  </si>
+  <si>
+    <t>事件</t>
   </si>
   <si>
     <t>描述</t>
-  </si>
-  <si>
-    <t>是否为触发器</t>
-  </si>
-  <si>
-    <t>偏移</t>
-  </si>
-  <si>
-    <t>半径</t>
-  </si>
-  <si>
-    <t>x轴方向上的一半长度</t>
-  </si>
-  <si>
-    <t>Y轴方向上的一半长度</t>
-  </si>
-  <si>
-    <t>碰撞体所包含的顶点信息(顺时针)，可能由多个多边形组成，注意！3~8个顶点，只能是凸多边形，要创建凹多边形需将其拆分为多个凸多边形</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>Circle</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>0,0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>3001</t>
-  </si>
-  <si>
-    <t>Polygon</t>
-  </si>
-  <si>
-    <t>-1,-1;-1,1;1,1;1,-1</t>
-  </si>
-  <si>
-    <t>##事件</t>
-  </si>
-  <si>
-    <t>事件</t>
   </si>
   <si>
     <t>参数0</t>
@@ -385,7 +307,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,12 +317,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +631,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -739,16 +655,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -758,95 +674,99 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1198,226 +1118,123 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="12.6666666666667" style="5" customWidth="1"/>
-    <col min="2" max="2" width="12.4416666666667" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.1083333333333" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.4416666666667" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.3333333333333" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.4416666666667" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.3333333333333" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.5166666666667" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.3166666666667" style="5" customWidth="1"/>
-    <col min="10" max="10" width="99.2333333333333" style="5" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="12.6666666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.4416666666667" style="6" customWidth="1"/>
+    <col min="3" max="3" width="18" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="5" customWidth="1"/>
+    <col min="5" max="5" width="8.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.4416666666667" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.3333333333333" style="6" customWidth="1"/>
+    <col min="8" max="8" width="11.5166666666667" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.3166666666667" style="6" customWidth="1"/>
+    <col min="10" max="10" width="99.2333333333333" style="6" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
+    <row r="1" s="4" customFormat="1" spans="1:10">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+    </row>
+    <row r="2" s="4" customFormat="1" spans="1:10">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="C2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" s="4" customFormat="1" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" s="4" customFormat="1" spans="1:10">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" s="4" customFormat="1" spans="2:10">
-      <c r="B4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" s="4" customFormat="1" spans="2:10">
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" s="4" customFormat="1" spans="2:10">
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="2:10">
-      <c r="B7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>38</v>
-      </c>
+    <row r="5" s="5" customFormat="1" spans="2:10">
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="C4:E4"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1447,7 +1264,7 @@
   <sheetData>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1461,64 +1278,64 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/ColliderConfig.xlsx
+++ b/Unity/Assets/Config/Excel/ColliderConfig.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>##var</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>0,0</t>
   </si>
   <si>
     <t>##事件</t>
@@ -1118,10 +1121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4"/>
@@ -1131,15 +1134,14 @@
     <col min="3" max="3" width="18" style="5" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="5" customWidth="1"/>
     <col min="5" max="5" width="8.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.4416666666667" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.3333333333333" style="6" customWidth="1"/>
-    <col min="8" max="8" width="11.5166666666667" style="6" customWidth="1"/>
-    <col min="9" max="9" width="10.3166666666667" style="6" customWidth="1"/>
-    <col min="10" max="10" width="99.2333333333333" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="6"/>
+    <col min="6" max="6" width="11.3333333333333" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.5166666666667" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.3166666666667" style="6" customWidth="1"/>
+    <col min="9" max="9" width="99.2333333333333" style="6" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:10">
+    <row r="1" s="4" customFormat="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1155,9 +1157,8 @@
       <c r="G1" s="7"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
     </row>
-    <row r="2" s="4" customFormat="1" spans="1:10">
+    <row r="2" s="4" customFormat="1" spans="1:9">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -1173,9 +1174,8 @@
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
     </row>
-    <row r="3" s="4" customFormat="1" spans="1:10">
+    <row r="3" s="4" customFormat="1" spans="1:9">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1191,9 +1191,8 @@
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:10">
+    <row r="4" s="4" customFormat="1" spans="1:9">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1209,9 +1208,8 @@
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
     </row>
-    <row r="5" s="5" customFormat="1" spans="2:10">
+    <row r="5" s="5" customFormat="1" spans="2:9">
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1221,12 +1219,10 @@
       <c r="D5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="9"/>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1264,7 +1260,7 @@
   <sheetData>
     <row r="4" spans="2:11">
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1278,64 +1274,64 @@
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:5">
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
